--- a/data/PW003.xlsx
+++ b/data/PW003.xlsx
@@ -37,7 +37,7 @@
     <t>Sreegowri28$</t>
   </si>
   <si>
-    <t>qwerty1234456789</t>
+    <t>qwerty123432</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/data/PW003.xlsx
+++ b/data/PW003.xlsx
@@ -37,7 +37,7 @@
     <t>Sreegowri28$</t>
   </si>
   <si>
-    <t>qwerty123432</t>
+    <t>qwerty12343210</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/data/PW003.xlsx
+++ b/data/PW003.xlsx
@@ -37,7 +37,7 @@
     <t>Sreegowri28$</t>
   </si>
   <si>
-    <t>qwerty12343210</t>
+    <t>qwerty123432101</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
